--- a/Jogos_da_Semana_FlashScore_FULL_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_FULL_2024-11-29.xlsx
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1323,10 +1323,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1499,22 +1499,22 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.7</v>
@@ -1523,19 +1523,19 @@
         <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
@@ -1556,34 +1556,34 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>8</v>
@@ -1604,22 +1604,22 @@
         <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>29</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
       <c r="BA6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
@@ -1769,7 +1769,7 @@
         <v>81</v>
       </c>
       <c r="AS7" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
         <v>2.1</v>
@@ -1787,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1796,7 +1796,7 @@
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1837,22 +1837,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
-        <v>4.85</v>
+        <v>5.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.98</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1861,16 +1861,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
         <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
         <v>1.45</v>
@@ -1879,76 +1879,76 @@
         <v>2.27</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="V8" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X8" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AE8" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
         <v>500</v>
       </c>
       <c r="AH8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AK8" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM8" t="n">
         <v>24</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AP8" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AQ8" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AR8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AS8" t="n">
         <v>500</v>
@@ -1957,29 +1957,29 @@
         <v>2.27</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>90</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AY8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BB8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BC8" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
         <v>4.33</v>
@@ -2210,7 +2210,7 @@
         <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.1</v>
@@ -2282,7 +2282,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -2294,7 +2294,7 @@
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
         <v>21</v>
@@ -2303,13 +2303,13 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2333,7 +2333,7 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
         <v>81</v>
@@ -2377,85 +2377,85 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H11" t="n">
         <v>5.25</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K11" t="n">
         <v>2.88</v>
       </c>
       <c r="L11" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V11" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>10</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AH11" t="n">
         <v>29</v>
@@ -2464,64 +2464,64 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
         <v>41</v>
       </c>
-      <c r="AM11" t="n">
-        <v>34</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
         <v>15</v>
       </c>
       <c r="AR11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS11" t="n">
         <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>41</v>
       </c>
       <c r="AW11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>29</v>
       </c>
-      <c r="AZ11" t="n">
-        <v>26</v>
-      </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2559,76 +2559,76 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K12" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U12" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="n">
         <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2640,70 +2640,70 @@
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AY12" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AZ12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
         <v>90</v>
       </c>
       <c r="BC12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2744,52 +2744,52 @@
         <v>6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L13" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="T13" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="V13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X13" t="n">
         <v>37</v>
@@ -2807,46 +2807,46 @@
         <v>55</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG13" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AI13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP13" t="n">
         <v>35</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>37</v>
       </c>
       <c r="AQ13" t="n">
         <v>200</v>
@@ -2855,16 +2855,16 @@
         <v>250</v>
       </c>
       <c r="AS13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>7.9</v>
       </c>
       <c r="AV13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW13" t="n">
         <v>81</v>
@@ -2873,19 +2873,19 @@
         <v>3.35</v>
       </c>
       <c r="AY13" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BC13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -3469,40 +3469,40 @@
         </is>
       </c>
       <c r="G17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.52</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.55</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S17" t="n">
         <v>1.57</v>
@@ -3517,19 +3517,19 @@
         <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>50</v>
@@ -3550,65 +3550,65 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
         <v>55</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR17" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS17" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT17" t="n">
         <v>2.1</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>100</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB17" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC17" t="n">
         <v>500</v>
@@ -3647,22 +3647,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="I18" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -3674,7 +3674,7 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
         <v>1.65</v>
@@ -3689,73 +3689,73 @@
         <v>3.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
         <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y18" t="n">
         <v>8.25</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB18" t="n">
         <v>28</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG18" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH18" t="n">
         <v>21</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP18" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR18" t="n">
         <v>45</v>
@@ -3764,29 +3764,29 @@
         <v>250</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ18" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA18" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BB18" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC18" t="n">
         <v>500</v>
@@ -3849,10 +3849,10 @@
         <v>10.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="Q19" t="n">
         <v>1.62</v>
@@ -3861,16 +3861,16 @@
         <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T19" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="U19" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="V19" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="W19" t="n">
         <v>10.5</v>
@@ -4024,13 +4024,13 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P20" t="n">
-        <v>6.25</v>
+        <v>6.65</v>
       </c>
       <c r="Q20" t="n">
         <v>1.55</v>
@@ -4039,16 +4039,16 @@
         <v>2.15</v>
       </c>
       <c r="S20" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="T20" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
         <v>20</v>
@@ -4357,16 +4357,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
@@ -4375,37 +4375,37 @@
         <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
@@ -4417,28 +4417,28 @@
         <v>34</v>
       </c>
       <c r="AA22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4453,7 +4453,7 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
         <v>5</v>
@@ -4462,22 +4462,22 @@
         <v>17</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
         <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4501,10 +4501,10 @@
         <v>51</v>
       </c>
       <c r="BC22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
@@ -4751,10 +4751,10 @@
         <v>3.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -5259,22 +5259,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="H27" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -5289,119 +5289,119 @@
         <v>2.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T27" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W27" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="AE27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV27" t="n">
         <v>65</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>80</v>
       </c>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AY27" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BA27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BC27" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BD27" t="inlineStr"/>
     </row>
@@ -5458,19 +5458,19 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S28" t="n">
         <v>1.44</v>
@@ -5500,7 +5500,7 @@
         <v>21</v>
       </c>
       <c r="AB28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
         <v>8.5</v>
@@ -5518,7 +5518,7 @@
         <v>301</v>
       </c>
       <c r="AH28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>15</v>
@@ -5533,7 +5533,7 @@
         <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="n">
         <v>4.33</v>
@@ -5542,7 +5542,7 @@
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>41</v>
@@ -5557,7 +5557,7 @@
         <v>2.63</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
@@ -5996,7 +5996,7 @@
         <v>1.03</v>
       </c>
       <c r="P31" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Q31" t="n">
         <v>1.23</v>
@@ -6011,10 +6011,10 @@
         <v>4.65</v>
       </c>
       <c r="U31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="V31" t="n">
-        <v>2.81</v>
+        <v>2.77</v>
       </c>
       <c r="W31" t="n">
         <v>24</v>
@@ -6329,46 +6329,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P33" t="n">
         <v>2.75</v>
       </c>
-      <c r="K33" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U33" t="n">
         <v>2.1</v>
@@ -6377,25 +6377,25 @@
         <v>1.67</v>
       </c>
       <c r="W33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X33" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA33" t="n">
         <v>17</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>19</v>
       </c>
       <c r="AB33" t="n">
         <v>34</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD33" t="n">
         <v>6.5</v>
@@ -6410,46 +6410,46 @@
         <v>1250</v>
       </c>
       <c r="AH33" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL33" t="n">
         <v>41</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR33" t="n">
         <v>67</v>
       </c>
       <c r="AS33" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV33" t="n">
         <v>67</v>
@@ -6458,19 +6458,19 @@
         <v>126</v>
       </c>
       <c r="AX33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY33" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
         <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC33" t="n">
         <v>351</v>
@@ -6511,16 +6511,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H34" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
@@ -6541,34 +6541,34 @@
         <v>2.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W34" t="n">
         <v>5.5</v>
       </c>
       <c r="X34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -6580,40 +6580,40 @@
         <v>8</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
       </c>
       <c r="AF34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG34" t="n">
         <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM34" t="n">
         <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP34" t="n">
         <v>23</v>
@@ -6628,7 +6628,7 @@
         <v>201</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU34" t="n">
         <v>9.5</v>
@@ -6643,7 +6643,7 @@
         <v>7</v>
       </c>
       <c r="AY34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ34" t="n">
         <v>41</v>
@@ -7053,16 +7053,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H37" t="n">
         <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7077,28 +7077,28 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -7110,7 +7110,7 @@
         <v>9</v>
       </c>
       <c r="Z37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
         <v>17</v>
@@ -7119,7 +7119,7 @@
         <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7170,10 +7170,10 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
@@ -7182,10 +7182,10 @@
         <v>126</v>
       </c>
       <c r="AX37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ37" t="n">
         <v>26</v>
@@ -7235,22 +7235,22 @@
         </is>
       </c>
       <c r="G38" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.6</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.5</v>
       </c>
       <c r="J38" t="n">
         <v>3.4</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -7286,7 +7286,7 @@
         <v>8</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>10</v>
@@ -7301,7 +7301,7 @@
         <v>34</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD38" t="n">
         <v>6.5</v>
@@ -7328,13 +7328,13 @@
         <v>26</v>
       </c>
       <c r="AL38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM38" t="n">
         <v>34</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO38" t="n">
         <v>15</v>
@@ -7346,7 +7346,7 @@
         <v>51</v>
       </c>
       <c r="AR38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS38" t="n">
         <v>201</v>
@@ -7364,7 +7364,7 @@
         <v>126</v>
       </c>
       <c r="AX38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY38" t="n">
         <v>15</v>
@@ -7376,7 +7376,7 @@
         <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC38" t="n">
         <v>201</v>
@@ -8317,10 +8317,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.06</v>
+        <v>6.9</v>
       </c>
       <c r="H44" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I44" t="n">
         <v>1.37</v>
@@ -8329,40 +8329,40 @@
         <v>6.57</v>
       </c>
       <c r="K44" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>10.5</v>
+        <v>12.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P44" t="n">
-        <v>3.85</v>
+        <v>3.98</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R44" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="S44" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T44" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="U44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V44" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W44" t="n">
         <v>19</v>
@@ -8371,19 +8371,19 @@
         <v>41</v>
       </c>
       <c r="Y44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z44" t="n">
         <v>81</v>
       </c>
       <c r="AA44" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AB44" t="n">
         <v>51</v>
       </c>
       <c r="AC44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD44" t="n">
         <v>8</v>
@@ -8392,20 +8392,20 @@
         <v>15</v>
       </c>
       <c r="AF44" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
         <v>7</v>
       </c>
       <c r="AI44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ44" t="n">
         <v>7</v>
       </c>
       <c r="AK44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL44" t="n">
         <v>9.5</v>
@@ -8420,7 +8420,7 @@
         <v>29</v>
       </c>
       <c r="AP44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ44" t="n">
         <v>81</v>
@@ -8432,7 +8432,7 @@
         <v>81</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU44" t="n">
         <v>6</v>
@@ -8506,10 +8506,10 @@
         <v>1.02</v>
       </c>
       <c r="J45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="K45" t="n">
-        <v>3.32</v>
+        <v>3.34</v>
       </c>
       <c r="L45" t="n">
         <v>1.34</v>
@@ -8524,7 +8524,7 @@
         <v>1.05</v>
       </c>
       <c r="P45" t="n">
-        <v>6.15</v>
+        <v>6.2</v>
       </c>
       <c r="Q45" t="n">
         <v>1.3</v>
@@ -8539,10 +8539,10 @@
         <v>4.6</v>
       </c>
       <c r="U45" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W45" t="n">
         <v>67</v>
@@ -8563,7 +8563,7 @@
         <v>81</v>
       </c>
       <c r="AC45" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AD45" t="n">
         <v>26</v>
@@ -8585,10 +8585,10 @@
         <v>13</v>
       </c>
       <c r="AK45" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AL45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM45" t="n">
         <v>56</v>
@@ -8615,7 +8615,7 @@
         <v>4.5</v>
       </c>
       <c r="AU45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV45" t="n">
         <v>81</v>
@@ -8636,7 +8636,7 @@
         <v>5.5</v>
       </c>
       <c r="BB45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8677,22 +8677,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="H46" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="J46" t="n">
-        <v>3.06</v>
+        <v>3.44</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="L46" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
@@ -8707,10 +8707,10 @@
         <v>2.78</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.09</v>
+        <v>2.11</v>
       </c>
       <c r="R46" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S46" t="n">
         <v>1.44</v>
@@ -8725,28 +8725,28 @@
         <v>1.9</v>
       </c>
       <c r="W46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z46" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB46" t="n">
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE46" t="n">
         <v>13</v>
@@ -8756,37 +8756,37 @@
       </c>
       <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL46" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM46" t="n">
         <v>29</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AS46" t="n">
         <v>81</v>
@@ -8804,16 +8804,16 @@
         <v>81</v>
       </c>
       <c r="AX46" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ46" t="n">
         <v>19</v>
       </c>
       <c r="BA46" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BB46" t="n">
         <v>67</v>
@@ -8899,16 +8899,16 @@
         <v>2.62</v>
       </c>
       <c r="U47" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="V47" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W47" t="n">
         <v>6.5</v>
       </c>
       <c r="X47" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y47" t="n">
         <v>7.5</v>
@@ -8936,13 +8936,13 @@
       </c>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI47" t="n">
         <v>15</v>
       </c>
       <c r="AJ47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK47" t="n">
         <v>46</v>
@@ -8957,7 +8957,7 @@
         <v>3.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP47" t="n">
         <v>17</v>
@@ -9217,7 +9217,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H49" t="n">
         <v>4.33</v>
@@ -9235,10 +9235,10 @@
         <v>8</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
@@ -9247,10 +9247,10 @@
         <v>3.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
         <v>1.4</v>
@@ -9329,7 +9329,7 @@
         <v>51</v>
       </c>
       <c r="AS49" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT49" t="n">
         <v>2.75</v>
@@ -9409,10 +9409,10 @@
         <v>2.88</v>
       </c>
       <c r="M50" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
         <v>1.44</v>
@@ -10113,22 +10113,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H54" t="n">
         <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K54" t="n">
         <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10143,16 +10143,16 @@
         <v>5.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R54" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S54" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U54" t="n">
         <v>1.44</v>
@@ -10164,13 +10164,13 @@
         <v>13</v>
       </c>
       <c r="X54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y54" t="n">
         <v>10</v>
       </c>
       <c r="Z54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA54" t="n">
         <v>17</v>
@@ -10182,16 +10182,16 @@
         <v>19</v>
       </c>
       <c r="AD54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE54" t="n">
         <v>11</v>
       </c>
       <c r="AF54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG54" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH54" t="n">
         <v>13</v>
@@ -10200,22 +10200,22 @@
         <v>17</v>
       </c>
       <c r="AJ54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM54" t="n">
         <v>21</v>
       </c>
       <c r="AN54" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP54" t="n">
         <v>17</v>
@@ -10230,7 +10230,7 @@
         <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU54" t="n">
         <v>7</v>
@@ -10248,7 +10248,7 @@
         <v>13</v>
       </c>
       <c r="AZ54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA54" t="n">
         <v>41</v>
@@ -10477,22 +10477,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K56" t="n">
         <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -10525,16 +10525,16 @@
         <v>2.25</v>
       </c>
       <c r="W56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
       </c>
       <c r="Z56" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
         <v>15</v>
@@ -10546,7 +10546,7 @@
         <v>13</v>
       </c>
       <c r="AD56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE56" t="n">
         <v>12</v>
@@ -10561,16 +10561,16 @@
         <v>13</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL56" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM56" t="n">
         <v>29</v>
@@ -10621,7 +10621,7 @@
         <v>67</v>
       </c>
       <c r="BC56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD56" t="n">
         <v>81</v>
@@ -10676,25 +10676,29 @@
       <c r="L57" t="n">
         <v>3.85</v>
       </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15</v>
+      </c>
       <c r="O57" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P57" t="n">
-        <v>6.65</v>
+        <v>6.6</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R57" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="S57" t="n">
         <v>1.17</v>
       </c>
       <c r="T57" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="U57" t="n">
         <v>1.34</v>
@@ -11027,22 +11031,22 @@
         <v>2.88</v>
       </c>
       <c r="M59" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R59" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S59" t="n">
         <v>1.33</v>
@@ -11187,16 +11191,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H60" t="n">
         <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K60" t="n">
         <v>2.3</v>
@@ -11217,28 +11221,28 @@
         <v>4.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R60" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V60" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y60" t="n">
         <v>11</v>
@@ -11280,7 +11284,7 @@
         <v>23</v>
       </c>
       <c r="AL60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM60" t="n">
         <v>23</v>
@@ -11304,7 +11308,7 @@
         <v>126</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU60" t="n">
         <v>7</v>
@@ -11367,13 +11371,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H61" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I61" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="J61" t="n">
         <v>3.55</v>
@@ -11385,22 +11389,22 @@
         <v>2.75</v>
       </c>
       <c r="M61" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>6.85</v>
+        <v>6.15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R61" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="S61" t="n">
         <v>1.38</v>
@@ -11409,104 +11413,104 @@
         <v>2.57</v>
       </c>
       <c r="U61" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="V61" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="W61" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X61" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y61" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z61" t="n">
         <v>37</v>
       </c>
       <c r="AA61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM61" t="n">
         <v>35</v>
       </c>
-      <c r="AC61" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>28</v>
-      </c>
       <c r="AN61" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO61" t="n">
         <v>16</v>
       </c>
       <c r="AP61" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ61" t="n">
         <v>75</v>
       </c>
       <c r="AR61" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS61" t="n">
         <v>300</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AU61" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV61" t="n">
         <v>65</v>
       </c>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AY61" t="n">
         <v>11</v>
       </c>
       <c r="AZ61" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA61" t="n">
         <v>45</v>
       </c>
       <c r="BB61" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC61" t="n">
         <v>250</v>
@@ -11723,28 +11727,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J63" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.1</v>
       </c>
       <c r="L63" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
         <v>1.29</v>
@@ -11753,10 +11757,10 @@
         <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S63" t="n">
         <v>1.4</v>
@@ -11771,19 +11775,19 @@
         <v>2</v>
       </c>
       <c r="W63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z63" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB63" t="n">
         <v>29</v>
@@ -11804,28 +11808,28 @@
         <v>201</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM63" t="n">
         <v>29</v>
       </c>
       <c r="AN63" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP63" t="n">
         <v>23</v>
@@ -11850,16 +11854,16 @@
       </c>
       <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ63" t="n">
         <v>23</v>
       </c>
       <c r="BA63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB63" t="n">
         <v>67</v>
@@ -11901,28 +11905,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I64" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="J64" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="K64" t="n">
         <v>2.25</v>
       </c>
       <c r="L64" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="M64" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N64" t="n">
-        <v>12</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O64" t="n">
         <v>1.17</v>
@@ -11943,73 +11947,73 @@
         <v>3.2</v>
       </c>
       <c r="U64" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V64" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="W64" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X64" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y64" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z64" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA64" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB64" t="n">
         <v>32</v>
       </c>
       <c r="AC64" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD64" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE64" t="n">
         <v>12.5</v>
       </c>
       <c r="AF64" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG64" t="n">
         <v>300</v>
       </c>
       <c r="AH64" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AI64" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AJ64" t="n">
         <v>7</v>
       </c>
       <c r="AK64" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AL64" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM64" t="n">
         <v>18.5</v>
       </c>
       <c r="AN64" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AO64" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP64" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ64" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR64" t="n">
         <v>150</v>
@@ -12028,19 +12032,19 @@
       </c>
       <c r="AW64" t="inlineStr"/>
       <c r="AX64" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AY64" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AZ64" t="n">
         <v>16.5</v>
       </c>
       <c r="BA64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB64" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BC64" t="n">
         <v>200</v>
@@ -12085,28 +12089,28 @@
         <v>3.85</v>
       </c>
       <c r="I65" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J65" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K65" t="n">
         <v>2.27</v>
       </c>
       <c r="L65" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M65" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
       </c>
       <c r="P65" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="Q65" t="n">
         <v>1.62</v>
@@ -12121,10 +12125,10 @@
         <v>3.2</v>
       </c>
       <c r="U65" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V65" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="W65" t="n">
         <v>6.8</v>
@@ -12136,22 +12140,22 @@
         <v>6.9</v>
       </c>
       <c r="Z65" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA65" t="n">
         <v>10</v>
       </c>
       <c r="AB65" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE65" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AE65" t="n">
-        <v>12</v>
       </c>
       <c r="AF65" t="n">
         <v>45</v>
@@ -12169,10 +12173,10 @@
         <v>13</v>
       </c>
       <c r="AK65" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL65" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM65" t="n">
         <v>32</v>
@@ -12181,35 +12185,35 @@
         <v>3.5</v>
       </c>
       <c r="AO65" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP65" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ65" t="n">
         <v>23</v>
       </c>
       <c r="AR65" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AS65" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT65" t="n">
         <v>3</v>
       </c>
       <c r="AU65" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV65" t="n">
         <v>60</v>
       </c>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AY65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ65" t="n">
         <v>29</v>
@@ -12257,22 +12261,22 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J66" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="M66" t="n">
         <v>1.01</v>
@@ -12284,13 +12288,13 @@
         <v>1.16</v>
       </c>
       <c r="P66" t="n">
-        <v>3.92</v>
+        <v>3.96</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S66" t="n">
         <v>1.31</v>
@@ -12299,73 +12303,73 @@
         <v>3.26</v>
       </c>
       <c r="U66" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V66" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="W66" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X66" t="n">
         <v>6.7</v>
-      </c>
-      <c r="X66" t="n">
-        <v>6.8</v>
       </c>
       <c r="Y66" t="n">
         <v>6.9</v>
       </c>
       <c r="Z66" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA66" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA66" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AB66" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC66" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD66" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE66" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF66" t="n">
         <v>45</v>
       </c>
       <c r="AG66" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH66" t="n">
         <v>13.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK66" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL66" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AM66" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO66" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AP66" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR66" t="n">
         <v>45</v>
@@ -12374,29 +12378,29 @@
         <v>175</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU66" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AV66" t="n">
         <v>60</v>
       </c>
       <c r="AW66" t="inlineStr"/>
       <c r="AX66" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AY66" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ66" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BA66" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB66" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC66" t="n">
         <v>350</v>
@@ -12613,22 +12617,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I68" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J68" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
         <v>2.2</v>
       </c>
       <c r="L68" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -12661,28 +12665,28 @@
         <v>1.95</v>
       </c>
       <c r="W68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y68" t="n">
         <v>15</v>
       </c>
       <c r="Z68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA68" t="n">
         <v>41</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>34</v>
       </c>
       <c r="AB68" t="n">
         <v>41</v>
       </c>
       <c r="AC68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD68" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE68" t="n">
         <v>15</v>
@@ -12694,31 +12698,31 @@
         <v>251</v>
       </c>
       <c r="AH68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ68" t="n">
         <v>8.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM68" t="n">
         <v>26</v>
       </c>
       <c r="AN68" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ68" t="n">
         <v>81</v>
@@ -12727,13 +12731,13 @@
         <v>101</v>
       </c>
       <c r="AS68" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT68" t="n">
         <v>2.75</v>
       </c>
       <c r="AU68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV68" t="n">
         <v>51</v>
@@ -12742,16 +12746,16 @@
         <v>81</v>
       </c>
       <c r="AX68" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY68" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AZ68" t="n">
         <v>21</v>
       </c>
       <c r="BA68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB68" t="n">
         <v>51</v>
@@ -12795,22 +12799,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H69" t="n">
         <v>4.1</v>
       </c>
       <c r="I69" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="J69" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="K69" t="n">
         <v>2.27</v>
       </c>
       <c r="L69" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
@@ -12825,16 +12829,16 @@
         <v>3.05</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R69" t="n">
         <v>1.75</v>
       </c>
       <c r="S69" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T69" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U69" t="n">
         <v>2.35</v>
@@ -12864,10 +12868,10 @@
         <v>7</v>
       </c>
       <c r="AD69" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE69" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF69" t="n">
         <v>175</v>
@@ -12876,16 +12880,16 @@
         <v>101</v>
       </c>
       <c r="AH69" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI69" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ69" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK69" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL69" t="n">
         <v>150</v>
@@ -12897,22 +12901,22 @@
         <v>3</v>
       </c>
       <c r="AO69" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP69" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ69" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AR69" t="n">
         <v>55</v>
       </c>
       <c r="AS69" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU69" t="n">
         <v>9.25</v>
@@ -12922,16 +12926,16 @@
       </c>
       <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AY69" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ69" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA69" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB69" t="n">
         <v>500</v>
@@ -13149,19 +13153,19 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H71" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I71" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J71" t="n">
         <v>2.67</v>
       </c>
-      <c r="J71" t="n">
-        <v>2.65</v>
-      </c>
       <c r="K71" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L71" t="n">
         <v>3.1</v>
@@ -13179,10 +13183,10 @@
         <v>4.3</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R71" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S71" t="n">
         <v>1.27</v>
@@ -13206,31 +13210,31 @@
         <v>7.8</v>
       </c>
       <c r="Z71" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA71" t="n">
         <v>13</v>
       </c>
       <c r="AB71" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC71" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE71" t="n">
         <v>10.25</v>
       </c>
       <c r="AF71" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG71" t="n">
         <v>150</v>
       </c>
       <c r="AH71" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI71" t="n">
         <v>13.5</v>
@@ -13248,28 +13252,28 @@
         <v>19</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO71" t="n">
         <v>10.75</v>
       </c>
       <c r="AP71" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ71" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AR71" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS71" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT71" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AU71" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV71" t="n">
         <v>45</v>
@@ -13282,13 +13286,13 @@
         <v>13.5</v>
       </c>
       <c r="AZ71" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA71" t="n">
         <v>55</v>
       </c>
       <c r="BB71" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC71" t="n">
         <v>175</v>
@@ -13908,7 +13912,7 @@
         <v>1.73</v>
       </c>
       <c r="V75" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="W75" t="n">
         <v>7.4</v>
@@ -14044,51 +14048,55 @@
         <v>1.65</v>
       </c>
       <c r="H76" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I76" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="J76" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="K76" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L76" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N76" t="n">
+        <v>12.4</v>
+      </c>
       <c r="O76" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P76" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S76" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T76" t="n">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="U76" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="V76" t="n">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="W76" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="X76" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -14097,31 +14105,31 @@
         <v>11.25</v>
       </c>
       <c r="AA76" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB76" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC76" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD76" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE76" t="n">
         <v>11.25</v>
       </c>
       <c r="AF76" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG76" t="n">
         <v>200</v>
       </c>
       <c r="AH76" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI76" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ76" t="n">
         <v>11.5</v>
@@ -14130,31 +14138,31 @@
         <v>50</v>
       </c>
       <c r="AL76" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM76" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN76" t="n">
         <v>3.7</v>
       </c>
       <c r="AO76" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP76" t="n">
         <v>15</v>
       </c>
       <c r="AQ76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR76" t="n">
         <v>45</v>
       </c>
       <c r="AS76" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT76" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU76" t="n">
         <v>6.9</v>
@@ -14170,7 +14178,7 @@
         <v>22</v>
       </c>
       <c r="AZ76" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA76" t="n">
         <v>110</v>
@@ -14909,7 +14917,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="H81" t="n">
         <v>3.15</v>
@@ -14921,28 +14929,28 @@
         <v>3.05</v>
       </c>
       <c r="K81" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L81" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>7.43</v>
+        <v>8.15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P81" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="R81" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S81" t="n">
         <v>1.42</v>
@@ -14951,46 +14959,46 @@
         <v>2.47</v>
       </c>
       <c r="U81" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V81" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W81" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="X81" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y81" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z81" t="n">
         <v>26</v>
       </c>
       <c r="AA81" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB81" t="n">
         <v>35</v>
       </c>
       <c r="AC81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD81" t="n">
         <v>6.1</v>
       </c>
       <c r="AE81" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF81" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG81" t="n">
         <v>700</v>
       </c>
       <c r="AH81" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI81" t="n">
         <v>13</v>
@@ -15014,35 +15022,35 @@
         <v>13</v>
       </c>
       <c r="AP81" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ81" t="n">
         <v>55</v>
       </c>
       <c r="AR81" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS81" t="n">
         <v>300</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="AU81" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV81" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="n">
         <v>4.55</v>
       </c>
       <c r="AY81" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA81" t="n">
         <v>70</v>
@@ -15051,7 +15059,7 @@
         <v>110</v>
       </c>
       <c r="BC81" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD81" t="inlineStr"/>
     </row>
@@ -15447,10 +15455,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H84" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I84" t="n">
         <v>5</v>
@@ -15462,7 +15470,7 @@
         <v>2.05</v>
       </c>
       <c r="L84" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M84" t="n">
         <v>1.08</v>
@@ -15477,10 +15485,10 @@
         <v>2.75</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R84" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S84" t="n">
         <v>1.5</v>
@@ -15504,22 +15512,22 @@
         <v>9</v>
       </c>
       <c r="Z84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB84" t="n">
         <v>34</v>
       </c>
       <c r="AC84" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE84" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF84" t="n">
         <v>67</v>
@@ -15555,7 +15563,7 @@
         <v>23</v>
       </c>
       <c r="AQ84" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR84" t="n">
         <v>51</v>
@@ -15574,7 +15582,7 @@
       </c>
       <c r="AW84" t="inlineStr"/>
       <c r="AX84" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY84" t="n">
         <v>29</v>
@@ -15625,13 +15633,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H85" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I85" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J85" t="n">
         <v>2.5</v>
@@ -15685,13 +15693,13 @@
         <v>17</v>
       </c>
       <c r="AA85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB85" t="n">
         <v>21</v>
       </c>
       <c r="AC85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD85" t="n">
         <v>7</v>
@@ -15706,7 +15714,7 @@
         <v>151</v>
       </c>
       <c r="AH85" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI85" t="n">
         <v>21</v>
@@ -15718,7 +15726,7 @@
         <v>41</v>
       </c>
       <c r="AL85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM85" t="n">
         <v>29</v>
@@ -15727,16 +15735,16 @@
         <v>4</v>
       </c>
       <c r="AO85" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS85" t="n">
         <v>101</v>
@@ -15754,16 +15762,16 @@
         <v>126</v>
       </c>
       <c r="AX85" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY85" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ85" t="n">
         <v>23</v>
       </c>
       <c r="BA85" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB85" t="n">
         <v>67</v>
@@ -15807,22 +15815,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I86" t="n">
         <v>4.5</v>
       </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K86" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L86" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M86" t="n">
         <v>1.02</v>
@@ -15831,16 +15839,16 @@
         <v>21</v>
       </c>
       <c r="O86" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P86" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R86" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S86" t="n">
         <v>1.22</v>
@@ -15849,25 +15857,25 @@
         <v>4</v>
       </c>
       <c r="U86" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V86" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W86" t="n">
         <v>12</v>
       </c>
       <c r="X86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y86" t="n">
         <v>9</v>
       </c>
       <c r="Z86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB86" t="n">
         <v>17</v>
@@ -15891,16 +15899,16 @@
         <v>21</v>
       </c>
       <c r="AI86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ86" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK86" t="n">
         <v>51</v>
       </c>
       <c r="AL86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM86" t="n">
         <v>29</v>
@@ -15909,10 +15917,10 @@
         <v>4</v>
       </c>
       <c r="AO86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ86" t="n">
         <v>21</v>
@@ -15927,19 +15935,19 @@
         <v>4</v>
       </c>
       <c r="AU86" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV86" t="n">
         <v>41</v>
       </c>
       <c r="AW86" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX86" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ86" t="n">
         <v>23</v>
@@ -15951,7 +15959,7 @@
         <v>67</v>
       </c>
       <c r="BC86" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD86" t="n">
         <v>151</v>
@@ -16171,13 +16179,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H88" t="n">
         <v>3.6</v>
       </c>
       <c r="I88" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J88" t="n">
         <v>3</v>
@@ -16192,7 +16200,7 @@
         <v>1.02</v>
       </c>
       <c r="N88" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O88" t="n">
         <v>1.13</v>
@@ -16228,7 +16236,7 @@
         <v>11</v>
       </c>
       <c r="Z88" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA88" t="n">
         <v>17</v>
@@ -16282,7 +16290,7 @@
         <v>41</v>
       </c>
       <c r="AR88" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS88" t="n">
         <v>81</v>
@@ -16303,7 +16311,7 @@
         <v>5</v>
       </c>
       <c r="AY88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ88" t="n">
         <v>17</v>
@@ -16353,22 +16361,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H89" t="n">
         <v>3.6</v>
       </c>
       <c r="I89" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J89" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K89" t="n">
         <v>2.25</v>
       </c>
       <c r="L89" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M89" t="n">
         <v>1.04</v>
@@ -16395,31 +16403,31 @@
         <v>3.25</v>
       </c>
       <c r="U89" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W89" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y89" t="n">
         <v>10</v>
       </c>
       <c r="Z89" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA89" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB89" t="n">
         <v>26</v>
       </c>
       <c r="AC89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD89" t="n">
         <v>7</v>
@@ -16440,28 +16448,28 @@
         <v>13</v>
       </c>
       <c r="AJ89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL89" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM89" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP89" t="n">
         <v>21</v>
       </c>
       <c r="AQ89" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR89" t="n">
         <v>51</v>
@@ -16482,7 +16490,7 @@
         <v>126</v>
       </c>
       <c r="AX89" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY89" t="n">
         <v>13</v>
@@ -16535,22 +16543,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>3.6</v>
       </c>
       <c r="I90" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K90" t="n">
         <v>2.3</v>
       </c>
       <c r="L90" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M90" t="n">
         <v>1.03</v>
@@ -16565,16 +16573,16 @@
         <v>4.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R90" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S90" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T90" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U90" t="n">
         <v>1.53</v>
@@ -16592,10 +16600,10 @@
         <v>10</v>
       </c>
       <c r="Z90" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB90" t="n">
         <v>23</v>
@@ -16604,19 +16612,19 @@
         <v>15</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE90" t="n">
         <v>12</v>
       </c>
       <c r="AF90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG90" t="n">
         <v>126</v>
       </c>
       <c r="AH90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI90" t="n">
         <v>15</v>
@@ -16640,7 +16648,7 @@
         <v>13</v>
       </c>
       <c r="AP90" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ90" t="n">
         <v>41</v>
@@ -16649,10 +16657,10 @@
         <v>51</v>
       </c>
       <c r="AS90" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT90" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU90" t="n">
         <v>7</v>
@@ -16664,7 +16672,7 @@
         <v>126</v>
       </c>
       <c r="AX90" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY90" t="n">
         <v>13</v>
@@ -16747,10 +16755,10 @@
         <v>2.05</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="R91" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S91" t="n">
         <v>1.62</v>
@@ -17245,13 +17253,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H94" t="n">
         <v>3.1</v>
       </c>
       <c r="I94" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J94" t="n">
         <v>3.2</v>
@@ -17275,10 +17283,10 @@
         <v>3</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R94" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S94" t="n">
         <v>1.44</v>
@@ -17329,7 +17337,7 @@
         <v>8.5</v>
       </c>
       <c r="AI94" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ94" t="n">
         <v>11</v>
@@ -17344,7 +17352,7 @@
         <v>34</v>
       </c>
       <c r="AN94" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO94" t="n">
         <v>15</v>
@@ -17456,7 +17464,7 @@
         <v>2.5</v>
       </c>
       <c r="R95" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S95" t="n">
         <v>1.57</v>
@@ -17631,7 +17639,7 @@
         <v>4.33</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R96" t="n">
         <v>2.1</v>
@@ -17783,22 +17791,22 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H97" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I97" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J97" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K97" t="n">
         <v>2.05</v>
       </c>
       <c r="L97" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M97" t="n">
         <v>1.07</v>
@@ -17807,13 +17815,13 @@
         <v>9</v>
       </c>
       <c r="O97" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R97" t="n">
         <v>1.62</v>
@@ -17825,25 +17833,25 @@
         <v>2.5</v>
       </c>
       <c r="U97" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W97" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X97" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z97" t="n">
         <v>41</v>
       </c>
       <c r="AA97" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB97" t="n">
         <v>41</v>
@@ -17858,13 +17866,13 @@
         <v>17</v>
       </c>
       <c r="AF97" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG97" t="n">
         <v>401</v>
       </c>
       <c r="AH97" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI97" t="n">
         <v>8.5</v>
@@ -17882,7 +17890,7 @@
         <v>34</v>
       </c>
       <c r="AN97" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO97" t="n">
         <v>23</v>
@@ -17894,7 +17902,7 @@
         <v>81</v>
       </c>
       <c r="AR97" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS97" t="n">
         <v>301</v>
@@ -17965,16 +17973,16 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H98" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I98" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K98" t="n">
         <v>2.1</v>
@@ -17989,16 +17997,16 @@
         <v>10</v>
       </c>
       <c r="O98" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P98" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q98" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R98" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S98" t="n">
         <v>1.44</v>
@@ -18016,7 +18024,7 @@
         <v>8.5</v>
       </c>
       <c r="X98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y98" t="n">
         <v>10</v>
@@ -18028,10 +18036,10 @@
         <v>21</v>
       </c>
       <c r="AB98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC98" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD98" t="n">
         <v>6.5</v>
@@ -18061,16 +18069,16 @@
         <v>21</v>
       </c>
       <c r="AM98" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN98" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO98" t="n">
         <v>15</v>
       </c>
       <c r="AP98" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ98" t="n">
         <v>51</v>
@@ -18079,7 +18087,7 @@
         <v>67</v>
       </c>
       <c r="AS98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT98" t="n">
         <v>2.63</v>
@@ -18109,7 +18117,7 @@
         <v>67</v>
       </c>
       <c r="BC98" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD98" t="n">
         <v>81</v>
@@ -18171,16 +18179,16 @@
         <v>11</v>
       </c>
       <c r="O99" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P99" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R99" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S99" t="n">
         <v>1.36</v>
@@ -18329,28 +18337,28 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I100" t="n">
         <v>3.2</v>
       </c>
-      <c r="I100" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J100" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K100" t="n">
         <v>2</v>
       </c>
       <c r="L100" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M100" t="n">
         <v>1.08</v>
       </c>
       <c r="N100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O100" t="n">
         <v>1.4</v>
@@ -18371,22 +18379,22 @@
         <v>2.5</v>
       </c>
       <c r="U100" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W100" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y100" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z100" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA100" t="n">
         <v>21</v>
@@ -18413,16 +18421,16 @@
         <v>8</v>
       </c>
       <c r="AI100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ100" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK100" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL100" t="n">
         <v>29</v>
-      </c>
-      <c r="AL100" t="n">
-        <v>26</v>
       </c>
       <c r="AM100" t="n">
         <v>41</v>
@@ -18431,19 +18439,19 @@
         <v>4.33</v>
       </c>
       <c r="AO100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP100" t="n">
         <v>26</v>
       </c>
       <c r="AQ100" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR100" t="n">
         <v>81</v>
       </c>
       <c r="AS100" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT100" t="n">
         <v>2.5</v>
@@ -18458,19 +18466,19 @@
         <v>126</v>
       </c>
       <c r="AX100" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ100" t="n">
         <v>29</v>
       </c>
       <c r="BA100" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB100" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC100" t="n">
         <v>251</v>
@@ -18529,10 +18537,10 @@
         <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O101" t="n">
         <v>1.44</v>
@@ -18901,10 +18909,10 @@
         <v>2.63</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R103" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S103" t="n">
         <v>1.53</v>
@@ -18913,13 +18921,13 @@
         <v>2.38</v>
       </c>
       <c r="U103" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V103" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W103" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X103" t="n">
         <v>8</v>
@@ -18937,16 +18945,16 @@
         <v>34</v>
       </c>
       <c r="AC103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD103" t="n">
         <v>6.5</v>
       </c>
       <c r="AE103" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF103" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG103" t="n">
         <v>1000</v>
@@ -18967,7 +18975,7 @@
         <v>41</v>
       </c>
       <c r="AM103" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN103" t="n">
         <v>3.75</v>
@@ -18991,7 +18999,7 @@
         <v>2.38</v>
       </c>
       <c r="AU103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV103" t="n">
         <v>67</v>
@@ -19010,7 +19018,7 @@
         <v>101</v>
       </c>
       <c r="BB103" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC103" t="n">
         <v>351</v>
@@ -19227,13 +19235,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H105" t="n">
         <v>3.9</v>
       </c>
       <c r="I105" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J105" t="n">
         <v>2.2</v>
@@ -19245,10 +19253,10 @@
         <v>5</v>
       </c>
       <c r="M105" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N105" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O105" t="n">
         <v>1.29</v>
@@ -19287,7 +19295,7 @@
         <v>12</v>
       </c>
       <c r="AA105" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB105" t="n">
         <v>29</v>
@@ -19308,13 +19316,13 @@
         <v>800</v>
       </c>
       <c r="AH105" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK105" t="n">
         <v>51</v>
@@ -19356,10 +19364,10 @@
         <v>81</v>
       </c>
       <c r="AX105" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY105" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ105" t="n">
         <v>34</v>
@@ -19600,19 +19608,19 @@
         <v>9.5</v>
       </c>
       <c r="J107" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K107" t="n">
         <v>2.75</v>
       </c>
       <c r="L107" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M107" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N107" t="n">
-        <v>1.03</v>
+        <v>12</v>
       </c>
       <c r="O107" t="n">
         <v>1.13</v>
@@ -19645,7 +19653,7 @@
         <v>7</v>
       </c>
       <c r="Y107" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z107" t="n">
         <v>8</v>
@@ -19696,10 +19704,10 @@
         <v>5.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR107" t="n">
         <v>34</v>
@@ -19711,7 +19719,7 @@
         <v>4</v>
       </c>
       <c r="AU107" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV107" t="n">
         <v>51</v>
@@ -19773,37 +19781,37 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H108" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="I108" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="J108" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K108" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L108" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="M108" t="n">
         <v>1.03</v>
       </c>
       <c r="N108" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="O108" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P108" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R108" t="n">
         <v>1.57</v>
@@ -19812,107 +19820,107 @@
         <v>1.44</v>
       </c>
       <c r="T108" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U108" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V108" t="n">
         <v>1.78</v>
       </c>
       <c r="W108" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X108" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="Z108" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA108" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AB108" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AC108" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD108" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE108" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF108" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG108" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH108" t="n">
         <v>6.7</v>
       </c>
       <c r="AI108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ108" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK108" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL108" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM108" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN108" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="AO108" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AP108" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AQ108" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR108" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AS108" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AU108" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV108" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW108" t="inlineStr"/>
       <c r="AX108" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="AY108" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AZ108" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA108" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB108" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BC108" t="n">
         <v>300</v>
@@ -20133,7 +20141,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
         <v>3.3</v>
@@ -20142,13 +20150,13 @@
         <v>2.22</v>
       </c>
       <c r="J110" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K110" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L110" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M110" t="n">
         <v>1.06</v>
@@ -20163,7 +20171,7 @@
         <v>3.2</v>
       </c>
       <c r="Q110" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R110" t="n">
         <v>1.82</v>
@@ -20172,7 +20180,7 @@
         <v>1.42</v>
       </c>
       <c r="T110" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U110" t="n">
         <v>1.72</v>
@@ -20181,10 +20189,10 @@
         <v>2</v>
       </c>
       <c r="W110" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X110" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y110" t="n">
         <v>10.5</v>
@@ -20202,7 +20210,7 @@
         <v>7.3</v>
       </c>
       <c r="AD110" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE110" t="n">
         <v>13.5</v>
@@ -20214,10 +20222,10 @@
         <v>450</v>
       </c>
       <c r="AH110" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI110" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ110" t="n">
         <v>9</v>
@@ -20229,53 +20237,53 @@
         <v>18</v>
       </c>
       <c r="AM110" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN110" t="n">
         <v>4.85</v>
       </c>
       <c r="AO110" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AP110" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ110" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR110" t="n">
         <v>120</v>
       </c>
       <c r="AS110" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT110" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU110" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV110" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW110" t="inlineStr"/>
       <c r="AX110" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AY110" t="n">
         <v>12</v>
       </c>
       <c r="AZ110" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA110" t="n">
         <v>50</v>
       </c>
       <c r="BB110" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC110" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD110" t="inlineStr"/>
     </row>
@@ -20314,37 +20322,37 @@
         <v>1.7</v>
       </c>
       <c r="H111" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I111" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="J111" t="n">
         <v>2.27</v>
       </c>
       <c r="K111" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L111" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="M111" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N111" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="O111" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q111" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R111" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S111" t="n">
         <v>1.42</v>
@@ -20353,22 +20361,22 @@
         <v>2.67</v>
       </c>
       <c r="U111" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="V111" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W111" t="n">
         <v>6.1</v>
       </c>
       <c r="X111" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y111" t="n">
         <v>8.25</v>
       </c>
       <c r="Z111" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA111" t="n">
         <v>14.5</v>
@@ -20377,22 +20385,22 @@
         <v>30</v>
       </c>
       <c r="AC111" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD111" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE111" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF111" t="n">
         <v>90</v>
       </c>
       <c r="AG111" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH111" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI111" t="n">
         <v>26</v>
@@ -20401,13 +20409,13 @@
         <v>15.5</v>
       </c>
       <c r="AK111" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL111" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM111" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN111" t="n">
         <v>3.5</v>
@@ -20416,13 +20424,13 @@
         <v>8.5</v>
       </c>
       <c r="AP111" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ111" t="n">
         <v>29</v>
       </c>
       <c r="AR111" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS111" t="n">
         <v>250</v>
@@ -20431,20 +20439,20 @@
         <v>2.67</v>
       </c>
       <c r="AU111" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV111" t="n">
         <v>75</v>
       </c>
       <c r="AW111" t="inlineStr"/>
       <c r="AX111" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AY111" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ111" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA111" t="n">
         <v>175</v>
@@ -20453,7 +20461,7 @@
         <v>200</v>
       </c>
       <c r="BC111" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD111" t="inlineStr"/>
     </row>
@@ -20667,146 +20675,146 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I113" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="J113" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K113" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L113" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="M113" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N113" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O113" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P113" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="R113" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S113" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T113" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U113" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W113" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="X113" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y113" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA113" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB113" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AC113" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD113" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AE113" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF113" t="n">
         <v>100</v>
       </c>
       <c r="AG113" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH113" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AI113" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AJ113" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK113" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL113" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AM113" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN113" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AO113" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP113" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ113" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR113" t="n">
         <v>200</v>
-      </c>
-      <c r="AR113" t="n">
-        <v>250</v>
       </c>
       <c r="AS113" t="n">
         <v>500</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU113" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV113" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW113" t="inlineStr"/>
       <c r="AX113" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="AY113" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AZ113" t="n">
         <v>19.5</v>
       </c>
       <c r="BA113" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB113" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC113" t="n">
         <v>300</v>
@@ -21021,19 +21029,19 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="H115" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I115" t="n">
         <v>2.95</v>
       </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
       <c r="J115" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K115" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L115" t="n">
         <v>3.7</v>
@@ -21057,10 +21065,10 @@
         <v>1.39</v>
       </c>
       <c r="S115" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T115" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="U115" t="n">
         <v>2.14</v>
@@ -21069,31 +21077,31 @@
         <v>1.67</v>
       </c>
       <c r="W115" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="X115" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Y115" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z115" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA115" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB115" t="n">
         <v>35</v>
       </c>
       <c r="AC115" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD115" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF115" t="n">
         <v>90</v>
@@ -21108,7 +21116,7 @@
         <v>11</v>
       </c>
       <c r="AJ115" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK115" t="n">
         <v>29</v>
@@ -21120,10 +21128,10 @@
         <v>40</v>
       </c>
       <c r="AN115" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO115" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP115" t="n">
         <v>27</v>
@@ -21138,17 +21146,17 @@
         <v>500</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AU115" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV115" t="n">
         <v>100</v>
       </c>
       <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AY115" t="n">
         <v>18</v>
@@ -21162,7 +21170,9 @@
       <c r="BB115" t="n">
         <v>175</v>
       </c>
-      <c r="BC115" t="inlineStr"/>
+      <c r="BC115" t="n">
+        <v>500</v>
+      </c>
       <c r="BD115" t="inlineStr"/>
     </row>
     <row r="116">
@@ -21375,40 +21385,40 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H117" t="n">
         <v>3.4</v>
       </c>
       <c r="I117" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J117" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K117" t="n">
         <v>1.95</v>
       </c>
       <c r="L117" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M117" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N117" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R117" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S117" t="n">
         <v>1.57</v>
@@ -21417,22 +21427,22 @@
         <v>2.25</v>
       </c>
       <c r="U117" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V117" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W117" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="X117" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y117" t="n">
         <v>9.5</v>
       </c>
       <c r="Z117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA117" t="n">
         <v>19</v>
@@ -21447,7 +21457,7 @@
         <v>7</v>
       </c>
       <c r="AE117" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF117" t="n">
         <v>101</v>
@@ -21460,22 +21470,22 @@
         <v>29</v>
       </c>
       <c r="AJ117" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK117" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL117" t="n">
         <v>67</v>
       </c>
-      <c r="AL117" t="n">
-        <v>51</v>
-      </c>
       <c r="AM117" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN117" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO117" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP117" t="n">
         <v>29</v>
@@ -21502,7 +21512,7 @@
         <v>81</v>
       </c>
       <c r="AX117" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY117" t="n">
         <v>41</v>
@@ -21511,7 +21521,7 @@
         <v>51</v>
       </c>
       <c r="BA117" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB117" t="n">
         <v>251</v>
@@ -21579,10 +21589,10 @@
         <v>6</v>
       </c>
       <c r="O118" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P118" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q118" t="n">
         <v>2.63</v>
@@ -23172,13 +23182,13 @@
         <v>2.65</v>
       </c>
       <c r="J127" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K127" t="n">
         <v>1.93</v>
       </c>
       <c r="L127" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="M127" t="n">
         <v>1.05</v>
@@ -23187,10 +23197,10 @@
         <v>6.1</v>
       </c>
       <c r="O127" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P127" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="Q127" t="n">
         <v>2.12</v>
@@ -23205,13 +23215,13 @@
         <v>2.22</v>
       </c>
       <c r="U127" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V127" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="W127" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X127" t="n">
         <v>9.75</v>
@@ -23223,16 +23233,16 @@
         <v>22</v>
       </c>
       <c r="AA127" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB127" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC127" t="n">
         <v>7.6</v>
       </c>
       <c r="AD127" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE127" t="n">
         <v>12.5</v>
@@ -23241,13 +23251,13 @@
         <v>60</v>
       </c>
       <c r="AG127" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH127" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI127" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ127" t="n">
         <v>8.5</v>
@@ -23256,22 +23266,22 @@
         <v>24</v>
       </c>
       <c r="AL127" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AM127" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN127" t="n">
         <v>4.3</v>
       </c>
       <c r="AO127" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP127" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ127" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR127" t="n">
         <v>120</v>
@@ -23290,16 +23300,16 @@
       </c>
       <c r="AW127" t="inlineStr"/>
       <c r="AX127" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AY127" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ127" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA127" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB127" t="n">
         <v>120</v>
@@ -23341,79 +23351,79 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I128" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="J128" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="K128" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L128" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N128" t="n">
-        <v>9.699999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="O128" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P128" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q128" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R128" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S128" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T128" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="U128" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="V128" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W128" t="n">
         <v>5.6</v>
       </c>
       <c r="X128" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="Y128" t="n">
         <v>8.5</v>
       </c>
       <c r="Z128" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AA128" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB128" t="n">
         <v>35</v>
       </c>
       <c r="AC128" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD128" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE128" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF128" t="n">
         <v>120</v>
@@ -23422,43 +23432,43 @@
         <v>1000</v>
       </c>
       <c r="AH128" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AI128" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ128" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK128" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AL128" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM128" t="n">
         <v>75</v>
       </c>
-      <c r="AM128" t="n">
-        <v>80</v>
-      </c>
       <c r="AN128" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO128" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AP128" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ128" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR128" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS128" t="n">
         <v>300</v>
       </c>
       <c r="AT128" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AU128" t="n">
         <v>8.25</v>
@@ -23470,19 +23480,19 @@
         <v>81</v>
       </c>
       <c r="AX128" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AY128" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ128" t="n">
         <v>40</v>
       </c>
       <c r="BA128" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB128" t="n">
         <v>250</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>300</v>
       </c>
       <c r="BC128" t="n">
         <v>81</v>
@@ -23544,13 +23554,13 @@
         <v>1.04</v>
       </c>
       <c r="N129" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O129" t="n">
         <v>1.16</v>
       </c>
       <c r="P129" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="Q129" t="n">
         <v>1.65</v>
@@ -23705,34 +23715,34 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H130" t="n">
         <v>3.95</v>
       </c>
       <c r="I130" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J130" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="K130" t="n">
         <v>2.3</v>
       </c>
       <c r="L130" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="M130" t="n">
         <v>1.04</v>
       </c>
       <c r="N130" t="n">
-        <v>10</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="O130" t="n">
         <v>1.16</v>
       </c>
       <c r="P130" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="Q130" t="n">
         <v>1.62</v>
@@ -23756,22 +23766,22 @@
         <v>15</v>
       </c>
       <c r="X130" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y130" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA130" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB130" t="n">
         <v>45</v>
       </c>
       <c r="AC130" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD130" t="n">
         <v>7</v>
@@ -23780,7 +23790,7 @@
         <v>13.5</v>
       </c>
       <c r="AF130" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG130" t="n">
         <v>350</v>
@@ -23804,13 +23814,13 @@
         <v>18.5</v>
       </c>
       <c r="AN130" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO130" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP130" t="n">
         <v>37</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>35</v>
       </c>
       <c r="AQ130" t="n">
         <v>250</v>
@@ -23825,7 +23835,7 @@
         <v>3.05</v>
       </c>
       <c r="AU130" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV130" t="n">
         <v>65</v>
@@ -23837,16 +23847,16 @@
         <v>3.3</v>
       </c>
       <c r="AY130" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ130" t="n">
         <v>15</v>
       </c>
       <c r="BA130" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB130" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC130" t="n">
         <v>175</v>
@@ -24069,13 +24079,13 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="H132" t="n">
         <v>7.5</v>
       </c>
       <c r="I132" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="J132" t="n">
         <v>1.32</v>
@@ -24096,13 +24106,13 @@
         <v>1.03</v>
       </c>
       <c r="P132" t="n">
-        <v>6.85</v>
+        <v>6.75</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R132" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="S132" t="n">
         <v>1.16</v>
@@ -24595,28 +24605,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="H135" t="n">
         <v>3.25</v>
       </c>
       <c r="I135" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="J135" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="K135" t="n">
         <v>2.07</v>
       </c>
       <c r="L135" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="M135" t="n">
         <v>1.01</v>
       </c>
       <c r="N135" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O135" t="n">
         <v>1.24</v>
@@ -24643,22 +24653,22 @@
         <v>2.05</v>
       </c>
       <c r="W135" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="X135" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y135" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z135" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA135" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AB135" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC135" t="n">
         <v>9.75</v>
@@ -24676,40 +24686,40 @@
         <v>300</v>
       </c>
       <c r="AH135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI135" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ135" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AK135" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AL135" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM135" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN135" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="AO135" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AP135" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ135" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR135" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS135" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT135" t="n">
         <v>2.47</v>
@@ -24724,19 +24734,19 @@
         <v>51</v>
       </c>
       <c r="AX135" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="AY135" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ135" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA135" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BB135" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BC135" t="n">
         <v>300</v>
